--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1039">
   <si>
     <t>anchor score</t>
   </si>
@@ -454,433 +454,433 @@
     <t>cut</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>cal</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>cal</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>due</t>
   </si>
   <si>
     <t>san</t>
@@ -3499,7 +3499,7 @@
         <v>99</v>
       </c>
       <c r="J1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3557,7 +3557,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02983666381785112</v>
+        <v>0.03025782223869063</v>
       </c>
       <c r="C3">
         <v>192</v>
@@ -3578,16 +3578,16 @@
         <v>100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K3">
-        <v>0.005733844009688836</v>
+        <v>0.007306842451922556</v>
       </c>
       <c r="L3">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="M3">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>369</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3607,7 +3607,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02407435459852642</v>
+        <v>0.02441417533811526</v>
       </c>
       <c r="C4">
         <v>125</v>
@@ -3628,16 +3628,16 @@
         <v>391</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K4">
-        <v>0.005274369363702239</v>
+        <v>0.006620872764970345</v>
       </c>
       <c r="L4">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="M4">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3657,7 +3657,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01032674765246777</v>
+        <v>0.0104725145103267</v>
       </c>
       <c r="C5">
         <v>23</v>
@@ -3678,28 +3678,28 @@
         <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>152</v>
+        <v>289</v>
       </c>
       <c r="K5">
-        <v>0.004356874231437164</v>
+        <v>0.005733844009688836</v>
       </c>
       <c r="L5">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="M5">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="N5">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>171</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3707,7 +3707,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01009975844676811</v>
+        <v>0.01024232124615711</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -3728,28 +3728,28 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="K6">
-        <v>0.003938372595913117</v>
+        <v>0.005274369363702239</v>
       </c>
       <c r="L6">
-        <v>560</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>588</v>
+        <v>99</v>
       </c>
       <c r="N6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2519</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3757,7 +3757,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01009975844676811</v>
+        <v>0.01024232124615711</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -3778,28 +3778,28 @@
         <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>291</v>
+        <v>150</v>
       </c>
       <c r="K7">
-        <v>0.003748331088884676</v>
+        <v>0.004356874231437164</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3807,7 +3807,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008878183300069911</v>
+        <v>0.00900350299671589</v>
       </c>
       <c r="C8">
         <v>17</v>
@@ -3828,28 +3828,28 @@
         <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="K8">
-        <v>0.003637504564096232</v>
+        <v>0.003938372595913117</v>
       </c>
       <c r="L8">
-        <v>355</v>
+        <v>560</v>
       </c>
       <c r="M8">
-        <v>368</v>
+        <v>588</v>
       </c>
       <c r="N8">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O8">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>2833</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3857,7 +3857,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.008056820062877543</v>
+        <v>0.008170545834478035</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -3878,28 +3878,28 @@
         <v>135</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>92</v>
+        <v>291</v>
       </c>
       <c r="K9">
-        <v>0.003508880146032867</v>
+        <v>0.003748331088884676</v>
       </c>
       <c r="L9">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>418</v>
+        <v>50</v>
       </c>
       <c r="N9">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1725</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3907,7 +3907,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.007459165954462781</v>
+        <v>0.007564455559672658</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -3928,28 +3928,28 @@
         <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>292</v>
+        <v>93</v>
       </c>
       <c r="K10">
-        <v>0.003352609246768777</v>
+        <v>0.003637504564096232</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>368</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>190</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3957,7 +3957,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007459165954462781</v>
+        <v>0.007564455559672658</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -3978,28 +3978,28 @@
         <v>39</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="K11">
-        <v>0.003241508128272166</v>
+        <v>0.003508880146032867</v>
       </c>
       <c r="L11">
-        <v>186</v>
+        <v>400</v>
       </c>
       <c r="M11">
-        <v>190</v>
+        <v>418</v>
       </c>
       <c r="N11">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O11">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>711</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4007,7 +4007,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007459165954462781</v>
+        <v>0.007564455559672658</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -4028,16 +4028,16 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K12">
-        <v>0.003224436323515404</v>
+        <v>0.003352609246768777</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4057,7 +4057,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007459165954462781</v>
+        <v>0.007564455559672658</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -4078,28 +4078,28 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>294</v>
+        <v>147</v>
       </c>
       <c r="K13">
-        <v>0.003136078788284753</v>
+        <v>0.003241508128272166</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>232</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4107,7 +4107,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007141607686055845</v>
+        <v>0.007242414808248745</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -4128,28 +4128,28 @@
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="K14">
-        <v>0.003124019927237492</v>
+        <v>0.003224436323515404</v>
       </c>
       <c r="L14">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="N14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4157,7 +4157,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00680925575572303</v>
+        <v>0.006905371575463469</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -4178,28 +4178,28 @@
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>147</v>
+        <v>294</v>
       </c>
       <c r="K15">
-        <v>0.003088089064406661</v>
+        <v>0.003136078788284753</v>
       </c>
       <c r="L15">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="N15">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>696</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4207,7 +4207,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.00680925575572303</v>
+        <v>0.006905371575463469</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -4228,16 +4228,16 @@
         <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K16">
-        <v>0.003080775313826147</v>
+        <v>0.003124019927237492</v>
       </c>
       <c r="L16">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M16">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>0.99</v>
@@ -4249,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>461</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4257,7 +4257,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00680925575572303</v>
+        <v>0.006905371575463469</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -4278,28 +4278,28 @@
         <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>295</v>
+        <v>146</v>
       </c>
       <c r="K17">
-        <v>0.00299866487110774</v>
+        <v>0.003088089064406661</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>105</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4307,7 +4307,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006459827207608767</v>
+        <v>0.006551010680474955</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -4328,28 +4328,28 @@
         <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>296</v>
+        <v>162</v>
       </c>
       <c r="K18">
-        <v>0.00299866487110774</v>
+        <v>0.003080775313826147</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>83</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4357,7 +4357,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006459827207608767</v>
+        <v>0.006551010680474955</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -4378,16 +4378,16 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K19">
-        <v>0.00295143885082812</v>
+        <v>0.00299866487110774</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4407,7 +4407,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006090383498391359</v>
+        <v>0.006176352101052454</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -4428,16 +4428,16 @@
         <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K20">
-        <v>0.002903444776664372</v>
+        <v>0.00299866487110774</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4457,7 +4457,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006090383498391359</v>
+        <v>0.006176352101052454</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -4478,16 +4478,16 @@
         <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K21">
-        <v>0.002854643909860149</v>
+        <v>0.00295143885082812</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>277</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4507,7 +4507,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006090383498391359</v>
+        <v>0.006176352101052454</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -4528,16 +4528,16 @@
         <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K22">
-        <v>0.002702959987677893</v>
+        <v>0.002903444776664372</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4557,7 +4557,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006090383498391359</v>
+        <v>0.006176352101052454</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -4578,16 +4578,16 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K23">
-        <v>0.00265047033108271</v>
+        <v>0.002854643909860149</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4599,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>66</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4607,7 +4607,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006090383498391359</v>
+        <v>0.006176352101052454</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -4628,16 +4628,16 @@
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K24">
-        <v>0.002542241833082312</v>
+        <v>0.002702959987677893</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4657,7 +4657,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006090383498391359</v>
+        <v>0.006176352101052454</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -4678,16 +4678,16 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K25">
-        <v>0.002486361562370953</v>
+        <v>0.00265047033108271</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4699,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4707,7 +4707,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005697032101260537</v>
+        <v>0.005777448365554917</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -4728,28 +4728,28 @@
         <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
       <c r="K26">
-        <v>0.002449621691089061</v>
+        <v>0.002542241833082312</v>
       </c>
       <c r="L26">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="N26">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>38</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4757,7 +4757,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005697032101260537</v>
+        <v>0.005777448365554917</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -4778,16 +4778,16 @@
         <v>25</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K27">
-        <v>0.002429196183884237</v>
+        <v>0.002486361562370953</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4807,7 +4807,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005697032101260537</v>
+        <v>0.005777448365554917</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -4828,28 +4828,28 @@
         <v>24</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>305</v>
+        <v>152</v>
       </c>
       <c r="K28">
-        <v>0.002370652733058925</v>
+        <v>0.002449621691089061</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4857,7 +4857,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005697032101260537</v>
+        <v>0.005777448365554917</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -4878,28 +4878,28 @@
         <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c r="K29">
-        <v>0.002354191593042828</v>
+        <v>0.002429196183884237</v>
       </c>
       <c r="L29">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4907,7 +4907,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005697032101260537</v>
+        <v>0.005777448365554917</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -4928,16 +4928,16 @@
         <v>19</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K30">
-        <v>0.002310626465208465</v>
+        <v>0.002370652733058925</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4957,7 +4957,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005697032101260537</v>
+        <v>0.005777448365554917</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -4978,28 +4978,28 @@
         <v>9</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="K31">
-        <v>0.002310626465208465</v>
+        <v>0.002354191593042828</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5007,7 +5007,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005274426828396458</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -5028,28 +5028,28 @@
         <v>13</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>150</v>
+        <v>306</v>
       </c>
       <c r="K32">
-        <v>0.002301212711872838</v>
+        <v>0.002310626465208465</v>
       </c>
       <c r="L32">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="N32">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>137</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5057,7 +5057,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005274426828396458</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -5078,16 +5078,16 @@
         <v>246</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K33">
-        <v>0.002248998653330805</v>
+        <v>0.002310626465208465</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5107,7 +5107,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005274426828396458</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -5128,28 +5128,28 @@
         <v>2</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>309</v>
+        <v>148</v>
       </c>
       <c r="K34">
-        <v>0.002185633826523965</v>
+        <v>0.002301212711872838</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5157,7 +5157,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005274426828396458</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -5178,16 +5178,16 @@
         <v>8</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K35">
-        <v>0.002185633826523965</v>
+        <v>0.002248998653330805</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5207,7 +5207,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005274426828396458</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -5228,28 +5228,28 @@
         <v>14</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="K36">
-        <v>0.002156313678633818</v>
+        <v>0.002185633826523965</v>
       </c>
       <c r="L36">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5257,7 +5257,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005274426828396458</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -5278,16 +5278,16 @@
         <v>4</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K37">
-        <v>0.002120376264866168</v>
+        <v>0.002185633826523965</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>51</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5307,7 +5307,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005274426828396458</v>
+        <v>0.005348877822228816</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -5328,28 +5328,28 @@
         <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>312</v>
+        <v>153</v>
       </c>
       <c r="K38">
-        <v>0.002053045490380039</v>
+        <v>0.002156313678633818</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>285</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5357,7 +5357,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -5378,16 +5378,16 @@
         <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K39">
-        <v>0.002053045490380039</v>
+        <v>0.002120376264866168</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>109</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5407,7 +5407,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -5428,28 +5428,28 @@
         <v>25</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>146</v>
+        <v>312</v>
       </c>
       <c r="K40">
-        <v>0.002019589593899168</v>
+        <v>0.002053045490380039</v>
       </c>
       <c r="L40">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>138</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5457,7 +5457,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -5478,16 +5478,16 @@
         <v>2</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K41">
-        <v>0.001983430378544159</v>
+        <v>0.002053045490380039</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>58</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5507,7 +5507,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -5528,7 +5528,7 @@
         <v>33</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K42">
         <v>0.001983430378544159</v>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5557,7 +5557,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -5578,7 +5578,7 @@
         <v>32</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K43">
         <v>0.001983430378544159</v>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>216</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5607,7 +5607,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -5628,7 +5628,7 @@
         <v>7</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K44">
         <v>0.001983430378544159</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>152</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5657,7 +5657,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -5678,7 +5678,7 @@
         <v>17</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K45">
         <v>0.001983430378544159</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>62</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5707,7 +5707,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -5728,28 +5728,28 @@
         <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>149</v>
+        <v>318</v>
       </c>
       <c r="K46">
-        <v>0.001926058471357678</v>
+        <v>0.001983430378544159</v>
       </c>
       <c r="L46">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5757,7 +5757,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004814870919705284</v>
+        <v>0.004882835067623052</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -5778,7 +5778,7 @@
         <v>368</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K47">
         <v>0.001918766532632124</v>
@@ -5807,7 +5807,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -5828,7 +5828,7 @@
         <v>3</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K48">
         <v>0.001914997443281893</v>
@@ -5857,7 +5857,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -5878,7 +5878,7 @@
         <v>7</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K49">
         <v>0.001911941946485515</v>
@@ -5907,7 +5907,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -5957,7 +5957,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -6007,7 +6007,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -6057,7 +6057,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -6107,7 +6107,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -6157,7 +6157,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -6178,7 +6178,7 @@
         <v>12</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K55">
         <v>0.00186360460752476</v>
@@ -6207,7 +6207,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -6257,7 +6257,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -6307,7 +6307,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -6357,7 +6357,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -6457,7 +6457,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004306551471739179</v>
+        <v>0.004367340453649971</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6507,7 +6507,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -6557,7 +6557,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -6607,7 +6607,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6657,7 +6657,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6707,7 +6707,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6757,7 +6757,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6807,7 +6807,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6828,7 +6828,7 @@
         <v>10</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K68">
         <v>0.001722483709150136</v>
@@ -6857,7 +6857,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6907,7 +6907,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6957,7 +6957,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -7007,7 +7007,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.00372958297723139</v>
+        <v>0.003782227779836329</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -7057,7 +7057,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003577243529317314</v>
+        <v>0.003627737989588179</v>
       </c>
       <c r="C73">
         <v>28</v>
@@ -7107,7 +7107,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -7157,7 +7157,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -7207,7 +7207,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -7257,7 +7257,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -7278,7 +7278,7 @@
         <v>164</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K77">
         <v>0.001652225415700642</v>
@@ -7307,7 +7307,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -7357,7 +7357,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -7407,7 +7407,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7457,7 +7457,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7507,7 +7507,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7557,7 +7557,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7607,7 +7607,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7657,7 +7657,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7707,7 +7707,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003045191749195679</v>
+        <v>0.003088176050526227</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7757,7 +7757,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003023580214511665</v>
+        <v>0.003066259458953982</v>
       </c>
       <c r="C87">
         <v>18</v>
@@ -7807,7 +7807,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002827533443000989</v>
+        <v>0.002867445395858558</v>
       </c>
       <c r="C88">
         <v>13</v>
@@ -7857,7 +7857,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7878,7 +7878,7 @@
         <v>13</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K89">
         <v>0.001562282226821732</v>
@@ -7907,7 +7907,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7957,7 +7957,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -8007,7 +8007,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -8057,7 +8057,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8107,7 +8107,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8157,7 +8157,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -8207,7 +8207,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -8257,7 +8257,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8307,7 +8307,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8357,7 +8357,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8407,7 +8407,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8457,7 +8457,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8478,7 +8478,7 @@
         <v>5</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K101">
         <v>0.001458802560475079</v>
@@ -8507,7 +8507,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8557,7 +8557,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8607,7 +8607,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8657,7 +8657,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8707,7 +8707,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8807,7 +8807,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8857,7 +8857,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8907,7 +8907,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8957,7 +8957,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9007,7 +9007,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9028,7 +9028,7 @@
         <v>58</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K112">
         <v>0.00135509528889643</v>
@@ -9057,7 +9057,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9078,7 +9078,7 @@
         <v>26</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K113">
         <v>0.001298711022889177</v>
@@ -9107,7 +9107,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9157,7 +9157,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9207,7 +9207,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9257,7 +9257,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9307,7 +9307,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9357,7 +9357,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9407,7 +9407,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9457,7 +9457,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9507,7 +9507,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9557,7 +9557,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9607,7 +9607,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9657,7 +9657,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9707,7 +9707,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9757,7 +9757,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9857,7 +9857,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9907,7 +9907,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9957,7 +9957,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9978,7 +9978,7 @@
         <v>34</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K131">
         <v>0.00125346126113988</v>
@@ -10007,7 +10007,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10028,7 +10028,7 @@
         <v>8</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K132">
         <v>0.001234098941756858</v>
@@ -10057,7 +10057,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10078,7 +10078,7 @@
         <v>22</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K133">
         <v>0.001193271147514134</v>
@@ -10107,7 +10107,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10157,7 +10157,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10207,7 +10207,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10257,7 +10257,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10307,7 +10307,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10357,7 +10357,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10407,7 +10407,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002153275735869589</v>
+        <v>0.002183670226824985</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10457,25 +10457,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002061691358465826</v>
+        <v>0.002047530006458979</v>
       </c>
       <c r="C141">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D141">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E141">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F141">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>138</v>
+        <v>696</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>400</v>
@@ -10507,25 +10507,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.00201903045029994</v>
+        <v>0.001958189639495619</v>
       </c>
       <c r="C142">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D142">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E142">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F142">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>401</v>
@@ -10557,25 +10557,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.00193093361129344</v>
+        <v>0.00188340927822202</v>
       </c>
       <c r="C143">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D143">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="E143">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F143">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>711</v>
+        <v>137</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>402</v>
@@ -10607,13 +10607,13 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001879209185615185</v>
+        <v>0.001786851154690636</v>
       </c>
       <c r="C144">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D144">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E144">
         <v>0.95</v>
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>403</v>
@@ -10657,25 +10657,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001857194117357066</v>
+        <v>0.00175151751214001</v>
       </c>
       <c r="C145">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="E145">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F145">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>404</v>
@@ -10707,13 +10707,13 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001761979985686857</v>
+        <v>0.001721443055560108</v>
       </c>
       <c r="C146">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D146">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E146">
         <v>0.95</v>
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>275</v>
+        <v>735</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>405</v>
@@ -10757,25 +10757,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001727138151865285</v>
+        <v>0.001602213090040354</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="E147">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F147">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>406</v>
@@ -10807,25 +10807,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001697482301440872</v>
+        <v>0.001515961119154901</v>
       </c>
       <c r="C148">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D148">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="E148">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F148">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>735</v>
+        <v>14</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>407</v>
@@ -10857,25 +10857,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001579911896995901</v>
+        <v>0.001504573292453344</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D149">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E149">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F149">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>38</v>
+        <v>535</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>408</v>
@@ -10907,25 +10907,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001494860466703418</v>
+        <v>0.001484276041675611</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D150">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E150">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F150">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>409</v>
@@ -10957,25 +10957,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.00148363114708385</v>
+        <v>0.001432432918612518</v>
       </c>
       <c r="C151">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D151">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E151">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F151">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>535</v>
+        <v>1068</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>410</v>
@@ -11007,25 +11007,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001463616413600901</v>
+        <v>0.001399765533724857</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E152">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F152">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>317</v>
+        <v>14</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>411</v>
@@ -11057,25 +11057,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001412494894613225</v>
+        <v>0.001321781139469051</v>
       </c>
       <c r="C153">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D153">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E153">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F153">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>1068</v>
+        <v>264</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>412</v>
@@ -11107,25 +11107,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001380282206832438</v>
+        <v>0.001306689829909524</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D154">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E154">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F154">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>413</v>
@@ -11157,25 +11157,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001303383276827026</v>
+        <v>0.001286461583706619</v>
       </c>
       <c r="C155">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D155">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E155">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F155">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>414</v>
@@ -11207,25 +11207,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001288502023102065</v>
+        <v>0.001244102081057749</v>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E156">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F156">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>415</v>
@@ -11257,25 +11257,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001268555333719739</v>
+        <v>0.001238509910201192</v>
       </c>
       <c r="C157">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E157">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F157">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>28</v>
+        <v>461</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>416</v>
@@ -11307,25 +11307,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001226785432698587</v>
+        <v>0.001203173946855962</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="E158">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F158">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>417</v>
@@ -11357,25 +11357,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001221271099229944</v>
+        <v>0.001169431608034938</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D159">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="E159">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F159">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>461</v>
+        <v>30</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>418</v>
@@ -11407,25 +11407,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001186426976916892</v>
+        <v>0.001159392108857301</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D160">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E160">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F160">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>419</v>
@@ -11457,25 +11457,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001153154297479189</v>
+        <v>0.001046932825652069</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E161">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F161">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>420</v>
@@ -11507,25 +11507,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001143254538021957</v>
+        <v>0.001035157756576053</v>
       </c>
       <c r="C162">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E162">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F162">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>421</v>
@@ -11557,25 +11557,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.00103236057481067</v>
+        <v>0.00102828144886647</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E163">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F163">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>422</v>
@@ -11607,13 +11607,13 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001020749402840605</v>
+        <v>0.001003469624926173</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E164">
         <v>0.98</v>
@@ -11625,7 +11625,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>252</v>
+        <v>112</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>423</v>
@@ -11657,25 +11657,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001013968806411012</v>
+        <v>0.0009938756115222406</v>
       </c>
       <c r="C165">
         <v>2</v>
       </c>
       <c r="D165">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E165">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F165">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>424</v>
@@ -11707,25 +11707,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.000989502338078479</v>
+        <v>0.000981861220813627</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E166">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F166">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>425</v>
@@ -11757,13 +11757,13 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0009800418636815129</v>
+        <v>0.0009695537604302184</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
       <c r="D167">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E167">
         <v>0.95</v>
@@ -11775,7 +11775,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>171</v>
+        <v>503</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>426</v>
@@ -11807,13 +11807,13 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.000968194701195019</v>
+        <v>0.0009440054957174837</v>
       </c>
       <c r="C168">
         <v>2</v>
       </c>
       <c r="D168">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E168">
         <v>0.95</v>
@@ -11825,7 +11825,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>427</v>
@@ -11857,25 +11857,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0009560585482685295</v>
+        <v>0.0009116309002483265</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D169">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E169">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F169">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>503</v>
+        <v>29</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>428</v>
@@ -11907,25 +11907,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0009308658896776341</v>
+        <v>0.0008916519962119455</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E170">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F170">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>197</v>
+        <v>9</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>429</v>
@@ -11957,25 +11957,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.000898941915981437</v>
+        <v>0.0008807371676291694</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D171">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E171">
-        <v>0.93</v>
+        <v>0.12</v>
       </c>
       <c r="F171">
-        <v>0.06999999999999995</v>
+        <v>0.88</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>430</v>
@@ -12007,13 +12007,13 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.000879241098173724</v>
+        <v>0.0008718557403493549</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E172">
         <v>0.97</v>
@@ -12025,10 +12025,10 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K172">
         <v>0.001184047567508515</v>
@@ -12057,28 +12057,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0008684781930153567</v>
+        <v>0.0008430633614682218</v>
       </c>
       <c r="C173">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E173">
-        <v>0.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F173">
-        <v>0.88</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K173">
         <v>0.001164295881287213</v>
@@ -12107,13 +12107,13 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0008597203862611195</v>
+        <v>0.000839699301996275</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E174">
         <v>0.97</v>
@@ -12125,10 +12125,10 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K174">
         <v>0.001134933797457362</v>
@@ -12157,28 +12157,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0008313287683047526</v>
+        <v>0.0008163762095705539</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E175">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F175">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K175">
         <v>0.001105624289376245</v>
@@ -12207,13 +12207,13 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0008280115331535926</v>
+        <v>0.0008163762095705539</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E176">
         <v>0.97</v>
@@ -12225,10 +12225,10 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K176">
         <v>0.001099477503375069</v>
@@ -12257,13 +12257,13 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0008050130746918634</v>
+        <v>0.0008040741662316222</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E177">
         <v>0.97</v>
@@ -12275,10 +12275,10 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K177">
         <v>0.00107917761476491</v>
@@ -12307,28 +12307,28 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0008050130746918634</v>
+        <v>0.0007780387424338552</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E178">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F178">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K178">
         <v>0.001067223130203934</v>
@@ -12357,28 +12357,28 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0007928822634100459</v>
+        <v>0.0007753038808600688</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179">
         <v>29</v>
       </c>
       <c r="E179">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F179">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K179">
         <v>0.001067223130203934</v>
@@ -12407,13 +12407,13 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0007672092264980917</v>
+        <v>0.0007642356179027977</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E180">
         <v>0.96</v>
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>38</v>
+        <v>334</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>431</v>
@@ -12457,25 +12457,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.00076451243144385</v>
+        <v>0.0007498559665482848</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E181">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F181">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>432</v>
@@ -12507,13 +12507,13 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0007535982275629972</v>
+        <v>0.0007348544117471665</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E182">
         <v>0.96</v>
@@ -12525,7 +12525,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>334</v>
+        <v>88</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>433</v>
@@ -12557,13 +12557,13 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0007394187264773606</v>
+        <v>0.0007191801724569718</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E183">
         <v>0.96</v>
@@ -12575,7 +12575,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>434</v>
@@ -12607,25 +12607,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0007246259782149396</v>
+        <v>0.0006978254288719047</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E184">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F184">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>435</v>
@@ -12657,25 +12657,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0007091699085542459</v>
+        <v>0.0006545881536938753</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185">
         <v>23</v>
       </c>
       <c r="E185">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F185">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>436</v>
@@ -12707,25 +12707,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.000688112401499117</v>
+        <v>0.0006484968600427534</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E186">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F186">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>437</v>
@@ -12757,25 +12757,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0006454769456586372</v>
+        <v>0.0006484968600427534</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E187">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F187">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>438</v>
@@ -12807,7 +12807,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0006394704366821935</v>
+        <v>0.0006484968600427534</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>439</v>
@@ -12857,25 +12857,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0006394704366821935</v>
+        <v>0.0006284351030846448</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E189">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F189">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>440</v>
@@ -12907,25 +12907,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0006394704366821935</v>
+        <v>0.0006077508056305075</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E190">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F190">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>441</v>
@@ -12957,13 +12957,13 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0006196879191820039</v>
+        <v>0.0006072173401109694</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E191">
         <v>0.9399999999999999</v>
@@ -12975,7 +12975,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>442</v>
@@ -13007,25 +13007,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.000599291526322693</v>
+        <v>0.000584715804017469</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E192">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F192">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>443</v>
@@ -13057,13 +13057,13 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0005987654861060735</v>
+        <v>0.000584715804017469</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E193">
         <v>0.9399999999999999</v>
@@ -13075,7 +13075,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>444</v>
@@ -13107,25 +13107,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0005765771487395947</v>
+        <v>0.0005607811479734956</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E194">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F194">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>445</v>
@@ -13157,25 +13157,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0005765771487395947</v>
+        <v>0.0005607811479734956</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E195">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F195">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>446</v>
@@ -13207,7 +13207,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0005529756390094339</v>
+        <v>0.0005607811479734956</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -13225,7 +13225,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>447</v>
@@ -13257,25 +13257,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0005529756390094339</v>
+        <v>0.0005567353930946786</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E197">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F197">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>448</v>
@@ -13307,13 +13307,13 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0005529756390094339</v>
+        <v>0.0005352374698500471</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E198">
         <v>0.93</v>
@@ -13325,7 +13325,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>449</v>
@@ -13357,25 +13357,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0005489861969651106</v>
+        <v>0.0005352374698500471</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E199">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F199">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>450</v>
@@ -13407,25 +13407,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0005277875031671199</v>
+        <v>0.0005078758913735834</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E200">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F200">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>451</v>
@@ -13457,25 +13457,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0005277875031671199</v>
+        <v>0.00047844620961009</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E201">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F201">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>452</v>
@@ -13507,25 +13507,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0005008067703143735</v>
+        <v>0.0004539759443655495</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D202">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E202">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="F202">
-        <v>0.07999999999999996</v>
+        <v>0.24</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>125</v>
+        <v>917</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>453</v>
@@ -13557,25 +13557,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0004717867200901081</v>
+        <v>0.0004466459903018862</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E203">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F203">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>454</v>
@@ -13607,25 +13607,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0004476570563001805</v>
+        <v>0.0004466459903018862</v>
       </c>
       <c r="C204">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E204">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="F204">
-        <v>0.24</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>917</v>
+        <v>102</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>455</v>
@@ -13657,7 +13657,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0004404291278170077</v>
+        <v>0.0004466459903018862</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13675,7 +13675,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>456</v>
@@ -13707,25 +13707,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0004404291278170077</v>
+        <v>0.0004440617996267556</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D206">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E206">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F206">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>457</v>
@@ -13757,25 +13757,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0004404291278170077</v>
+        <v>0.000412106340769162</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E207">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F207">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>458</v>
@@ -13807,25 +13807,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0004378809064742136</v>
+        <v>0.000412106340769162</v>
       </c>
       <c r="C208">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E208">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F208">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>459</v>
@@ -13857,7 +13857,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0004063702354299498</v>
+        <v>0.000412106340769162</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13875,7 +13875,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>460</v>
@@ -13907,25 +13907,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0004063702354299498</v>
+        <v>0.0003743736472762278</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E210">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F210">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>461</v>
@@ -13957,25 +13957,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0004063702354299498</v>
+        <v>0.0003743736472762278</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E211">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F211">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>462</v>
@@ -14007,7 +14007,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0003691627430397303</v>
+        <v>0.0003743736472762278</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -14025,7 +14025,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>463</v>
@@ -14057,7 +14057,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0003691627430397303</v>
+        <v>0.0003743736472762278</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -14075,7 +14075,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>464</v>
@@ -14107,7 +14107,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0003691627430397303</v>
+        <v>0.0003743736472762278</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -14125,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>465</v>
@@ -14157,7 +14157,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0003691627430397303</v>
+        <v>0.0003743736472762278</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -14175,7 +14175,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>466</v>
@@ -14207,25 +14207,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0003691627430397303</v>
+        <v>0.0003706266568017122</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E216">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F216">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>467</v>
@@ -14257,25 +14257,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0003691627430397303</v>
+        <v>0.0003328873594225984</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E217">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F217">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>468</v>
@@ -14307,25 +14307,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0003654679069000077</v>
+        <v>0.0003328873594225984</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E218">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F218">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>469</v>
@@ -14357,7 +14357,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0003282539025430552</v>
+        <v>0.0003328873594225984</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14375,7 +14375,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>470</v>
@@ -14407,7 +14407,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0003282539025430552</v>
+        <v>0.0003328873594225984</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14425,7 +14425,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>471</v>
@@ -14457,7 +14457,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0003282539025430552</v>
+        <v>0.0003328873594225984</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14475,7 +14475,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>472</v>
@@ -14507,7 +14507,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0003282539025430552</v>
+        <v>0.0003328873594225984</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14525,7 +14525,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>473</v>
@@ -14557,25 +14557,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0003282539025430552</v>
+        <v>0.0002869574512783255</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E223">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F223">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>474</v>
@@ -14607,25 +14607,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0003282539025430552</v>
+        <v>0.0002523168485011462</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E224">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F224">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>475</v>
@@ -14657,25 +14657,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.000282963292476177</v>
+        <v>0.0002357588932351636</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E225">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F225">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>286</v>
+        <v>53</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>476</v>
@@ -14707,25 +14707,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0002488048520121833</v>
+        <v>0.0002357588932351636</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F226">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>477</v>
@@ -14757,7 +14757,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0002324773668123258</v>
+        <v>0.0002357588932351636</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14775,7 +14775,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>478</v>
@@ -14807,7 +14807,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0002324773668123258</v>
+        <v>0.0002357588932351636</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14825,7 +14825,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>479</v>
@@ -14857,7 +14857,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0002324773668123258</v>
+        <v>0.0002357588932351636</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14875,7 +14875,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>480</v>
@@ -14907,7 +14907,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0002324773668123258</v>
+        <v>0.0002357588932351636</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14925,7 +14925,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>481</v>
@@ -14957,7 +14957,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0002324773668123258</v>
+        <v>0.0002357588932351636</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14975,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>482</v>
@@ -15007,25 +15007,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0002324773668123258</v>
+        <v>0.0002082385232396481</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E232">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F232">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>483</v>
@@ -15057,28 +15057,28 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0002324773668123258</v>
+        <v>0.0001784149545827793</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E233">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F233">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K233">
         <v>0.001052574351097599</v>
@@ -15107,28 +15107,28 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0002053400526585955</v>
+        <v>0.0001784149545827793</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F234">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K234">
         <v>0.001032858944446906</v>
@@ -15157,7 +15157,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0001759315980499303</v>
+        <v>0.0001784149545827793</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -15175,10 +15175,10 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K235">
         <v>0.0009988889599317112</v>
@@ -15207,7 +15207,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0001759315980499303</v>
+        <v>0.0001784149545827793</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15225,10 +15225,10 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K236">
         <v>0.0009630609804666654</v>
@@ -15257,7 +15257,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0001759315980499303</v>
+        <v>0.0001784149545827793</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15275,10 +15275,10 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K237">
         <v>0.0009276051879652118</v>
@@ -15307,7 +15307,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0001759315980499303</v>
+        <v>0.0001784149545827793</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15325,10 +15325,10 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K238">
         <v>0.000926354644541055</v>
@@ -15357,7 +15357,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0001759315980499303</v>
+        <v>0.0001784149545827793</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15375,7 +15375,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>484</v>
@@ -15407,25 +15407,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0001759315980499303</v>
+        <v>0.0001619089544983935</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E240">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F240">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>485</v>
@@ -15457,25 +15457,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0001759315980499303</v>
+        <v>0.0001619089544983935</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E241">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F241">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>486</v>
@@ -15507,13 +15507,13 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0001596553448678522</v>
+        <v>0.0001144869196606387</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E242">
         <v>0.75</v>
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>487</v>
@@ -15557,13 +15557,13 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0001596553448678522</v>
+        <v>0.0001144869196606387</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E243">
         <v>0.75</v>
@@ -15575,7 +15575,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>488</v>
@@ -15607,7 +15607,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0001128933770087356</v>
+        <v>0.0001144869196606387</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15625,7 +15625,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>489</v>
@@ -15657,7 +15657,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0001128933770087356</v>
+        <v>0.0001144869196606387</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15675,7 +15675,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>490</v>
@@ -15707,7 +15707,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0001128933770087356</v>
+        <v>0.0001144869196606387</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15725,7 +15725,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>491</v>
@@ -15757,7 +15757,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0001128933770087356</v>
+        <v>0.0001144869196606387</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15775,7 +15775,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>492</v>
@@ -15807,7 +15807,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0001128933770087356</v>
+        <v>0.0001144869196606387</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>493</v>
@@ -15857,25 +15857,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0001128933770087356</v>
+        <v>0.0001138972580716073</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E249">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F249">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>494</v>
@@ -15907,25 +15907,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0001128933770087356</v>
+        <v>6.59014164300876E-05</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D250">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E250">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F250">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>495</v>
@@ -15957,25 +15957,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0001123119229153299</v>
+        <v>6.59014164300876E-05</v>
       </c>
       <c r="C251">
         <v>2</v>
       </c>
       <c r="D251">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E251">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="F251">
-        <v>0.29</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>496</v>
@@ -16007,25 +16007,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>6.498413506542639E-05</v>
+        <v>6.590141643008659E-05</v>
       </c>
       <c r="C252">
         <v>2</v>
       </c>
       <c r="D252">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E252">
+        <v>0.67</v>
+      </c>
+      <c r="F252">
         <v>0.33</v>
       </c>
-      <c r="F252">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>497</v>
@@ -16057,25 +16057,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>6.498413506542639E-05</v>
+        <v>4.659933844751278E-05</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253">
         <v>3</v>
       </c>
       <c r="E253">
+        <v>0.67</v>
+      </c>
+      <c r="F253">
         <v>0.33</v>
       </c>
-      <c r="F253">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>498</v>
@@ -16107,13 +16107,13 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>6.498413506542538E-05</v>
+        <v>4.659933844751278E-05</v>
       </c>
       <c r="C254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E254">
         <v>0.67</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>499</v>
@@ -16157,7 +16157,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>4.595072257430479E-05</v>
+        <v>4.659933844751278E-05</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16175,7 +16175,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>500</v>
@@ -16207,7 +16207,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>4.595072257430479E-05</v>
+        <v>4.659933844751278E-05</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16225,7 +16225,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>501</v>
@@ -16257,7 +16257,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>4.595072257430479E-05</v>
+        <v>4.659933844751278E-05</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16275,7 +16275,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>502</v>
@@ -16307,7 +16307,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>4.595072257430479E-05</v>
+        <v>4.659933844751278E-05</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16325,7 +16325,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>503</v>
@@ -16357,7 +16357,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>4.595072257430479E-05</v>
+        <v>4.659933844751278E-05</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16375,7 +16375,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>504</v>
@@ -16407,7 +16407,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>4.595072257430479E-05</v>
+        <v>4.659933844751278E-05</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16425,7 +16425,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>505</v>
@@ -16457,7 +16457,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>4.595072257430479E-05</v>
+        <v>4.659933844751278E-05</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16475,7 +16475,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>506</v>
@@ -16507,7 +16507,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>4.595072257430479E-05</v>
+        <v>4.659933844751278E-05</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16525,7 +16525,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>507</v>
@@ -16557,25 +16557,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>4.595072257430479E-05</v>
+        <v>4.41354271478531E-05</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D263">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E263">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="F263">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>508</v>
@@ -16607,25 +16607,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>4.595072257430479E-05</v>
+        <v>2.27722958648711E-05</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D264">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E264">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F264">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>509</v>
@@ -16657,25 +16657,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>4.352110643917702E-05</v>
+        <v>1.407588658960881E-05</v>
       </c>
       <c r="C265">
         <v>3</v>
       </c>
       <c r="D265">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E265">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="F265">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>510</v>
@@ -16707,25 +16707,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>2.245532843444329E-05</v>
+        <v>0</v>
       </c>
       <c r="C266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D266">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E266">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F266">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>511</v>
@@ -16757,25 +16757,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>1.387996442041795E-05</v>
+        <v>0</v>
       </c>
       <c r="C267">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E267">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F267">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>512</v>
@@ -16825,7 +16825,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>513</v>
@@ -16875,7 +16875,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>514</v>
@@ -16910,10 +16910,10 @@
         <v>0</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E270">
         <v>0.5</v>
@@ -16925,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>515</v>
@@ -16975,7 +16975,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>516</v>
@@ -17010,10 +17010,10 @@
         <v>0</v>
       </c>
       <c r="C272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E272">
         <v>0.5</v>
@@ -17025,7 +17025,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>517</v>
@@ -17075,7 +17075,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>518</v>
@@ -17125,7 +17125,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>519</v>
@@ -17175,7 +17175,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>520</v>
@@ -17225,7 +17225,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>521</v>
@@ -17275,7 +17275,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>522</v>
@@ -17325,7 +17325,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>523</v>
@@ -17375,7 +17375,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>524</v>
@@ -17425,7 +17425,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>525</v>
@@ -17475,7 +17475,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>57</v>
+        <v>234</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>526</v>
@@ -17503,30 +17503,6 @@
       </c>
     </row>
     <row r="282" spans="1:17">
-      <c r="A282" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B282">
-        <v>0</v>
-      </c>
-      <c r="C282">
-        <v>1</v>
-      </c>
-      <c r="D282">
-        <v>2</v>
-      </c>
-      <c r="E282">
-        <v>0.5</v>
-      </c>
-      <c r="F282">
-        <v>0.5</v>
-      </c>
-      <c r="G282" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282">
-        <v>27</v>
-      </c>
       <c r="J282" s="1" t="s">
         <v>527</v>
       </c>
@@ -17553,30 +17529,6 @@
       </c>
     </row>
     <row r="283" spans="1:17">
-      <c r="A283" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B283">
-        <v>0</v>
-      </c>
-      <c r="C283">
-        <v>1</v>
-      </c>
-      <c r="D283">
-        <v>2</v>
-      </c>
-      <c r="E283">
-        <v>0.5</v>
-      </c>
-      <c r="F283">
-        <v>0.5</v>
-      </c>
-      <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283">
-        <v>234</v>
-      </c>
       <c r="J283" s="1" t="s">
         <v>528</v>
       </c>
@@ -18280,7 +18232,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K310">
         <v>0.0008917628218743289</v>
@@ -18306,7 +18258,7 @@
     </row>
     <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K311">
         <v>0.0008555218658107707</v>
@@ -18332,7 +18284,7 @@
     </row>
     <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K312">
         <v>0.0008188699535534963</v>
@@ -18358,7 +18310,7 @@
     </row>
     <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K313">
         <v>0.0008057344911806642</v>
@@ -18384,7 +18336,7 @@
     </row>
     <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K314">
         <v>0.0007876188444094509</v>
@@ -21946,7 +21898,7 @@
     </row>
     <row r="451" spans="10:17">
       <c r="J451" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K451">
         <v>0.000691519979285289</v>
@@ -21972,7 +21924,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K452">
         <v>0.0006678978112212453</v>
@@ -21998,7 +21950,7 @@
     </row>
     <row r="453" spans="10:17">
       <c r="J453" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K453">
         <v>0.0006678978112212453</v>
@@ -22024,7 +21976,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K454">
         <v>0.0006678978112212453</v>
@@ -22050,7 +22002,7 @@
     </row>
     <row r="455" spans="10:17">
       <c r="J455" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K455">
         <v>0.0006290002044282854</v>
@@ -22076,7 +22028,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K456">
         <v>0.0005896170675269542</v>
@@ -22102,7 +22054,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K457">
         <v>0.0005744623908874837</v>
@@ -22128,7 +22080,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K458">
         <v>0.0005497387516875346</v>
@@ -22154,7 +22106,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K459">
         <v>0.0005497387516875346</v>
@@ -31254,7 +31206,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K809">
         <v>0.0005149068637774172</v>
@@ -31280,7 +31232,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K810">
         <v>0.0005093582130405828</v>
@@ -31306,7 +31258,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K811">
         <v>0.0005093582130405828</v>
@@ -31332,7 +31284,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K812">
         <v>0.0005093582130405828</v>
@@ -31358,7 +31310,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K813">
         <v>0.0004684724708826445</v>
@@ -31384,7 +31336,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K814">
         <v>0.0004684724708826445</v>
@@ -31410,7 +31362,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K815">
         <v>0.0004547296115136717</v>
@@ -31436,7 +31388,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K816">
         <v>0.0004270847956225795</v>
@@ -31462,7 +31414,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K817">
         <v>0.0003940253689110441</v>
@@ -31488,7 +31440,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K818">
         <v>0.0003852080470068721</v>
@@ -31514,7 +31466,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K819">
         <v>0.0003428698753876251</v>
@@ -31540,7 +31492,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K820">
         <v>0.0003428698753876251</v>
@@ -31566,7 +31518,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K821">
         <v>0.0003428698753876251</v>
@@ -31592,7 +31544,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K822">
         <v>0.0003001210391684113</v>
@@ -31618,7 +31570,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K823">
         <v>0.0003001210391684113</v>
@@ -31644,7 +31596,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K824">
         <v>0.0003001210391684113</v>
@@ -31670,7 +31622,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K825">
         <v>0.0002570491393263108</v>
@@ -31696,7 +31648,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K826">
         <v>0.0002570491393263108</v>
@@ -31722,7 +31674,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K827">
         <v>0.0002570491393263108</v>
@@ -31748,7 +31700,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K828">
         <v>0.0002570491393263108</v>
@@ -31774,7 +31726,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K829">
         <v>0.0002570491393263108</v>
@@ -31800,7 +31752,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K830">
         <v>0.0002570491393263108</v>
@@ -31826,7 +31778,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K831">
         <v>0.0002349395375275031</v>
@@ -31852,7 +31804,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K832">
         <v>0.0002138022219295501</v>
@@ -31878,7 +31830,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K833">
         <v>0.0002138022219295501</v>
@@ -31904,7 +31856,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K834">
         <v>0.0002138022219295501</v>
@@ -31930,7 +31882,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K835">
         <v>0.0002138022219295501</v>
@@ -31956,7 +31908,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K836">
         <v>0.0002138022219295501</v>
@@ -31982,7 +31934,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K837">
         <v>0.0002138022219295501</v>
@@ -32008,7 +31960,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K838">
         <v>0.0002110006955587082</v>
@@ -32034,7 +31986,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K839">
         <v>0.000198673714340099</v>
@@ -32060,7 +32012,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K840">
         <v>0.0001706314265176598</v>
@@ -32086,7 +32038,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K841">
         <v>0.0001279731842576616</v>
@@ -32112,7 +32064,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K842">
         <v>0.0001279731842576616</v>
@@ -32138,7 +32090,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K843">
         <v>0.0001279731842576616</v>
@@ -32164,7 +32116,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K844">
         <v>0.0001279731842576616</v>
@@ -32190,7 +32142,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K845">
         <v>0.0001279731842576616</v>
@@ -32216,7 +32168,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K846">
         <v>0.0001279731842576616</v>
@@ -32242,7 +32194,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K847">
         <v>0.0001279731842576616</v>
@@ -32268,7 +32220,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K848">
         <v>0.0001225017061219799</v>
@@ -32294,7 +32246,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K849">
         <v>9.457165461682934E-05</v>
@@ -32320,7 +32272,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K850">
         <v>8.662178710577361E-05</v>
@@ -32346,7 +32298,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K851">
         <v>8.662178710577361E-05</v>
@@ -32372,7 +32324,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K852">
         <v>8.662178710577361E-05</v>
@@ -32398,7 +32350,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K853">
         <v>8.662178710577361E-05</v>
@@ -32424,7 +32376,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K854">
         <v>8.662178710577361E-05</v>
@@ -32450,7 +32402,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K855">
         <v>8.662178710577361E-05</v>
@@ -32476,7 +32428,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K856">
         <v>8.662178710577361E-05</v>
@@ -32502,7 +32454,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K857">
         <v>8.080964413980424E-05</v>
@@ -32528,7 +32480,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K858">
         <v>6.807652609222533E-05</v>
@@ -32554,7 +32506,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K859">
         <v>6.807652609222533E-05</v>
@@ -32580,7 +32532,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K860">
         <v>4.813737323943547E-05</v>
@@ -32606,7 +32558,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K861">
         <v>4.813737323943547E-05</v>
@@ -32632,7 +32584,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K862">
         <v>4.813737323943547E-05</v>
@@ -32658,7 +32610,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K863">
         <v>4.813737323943547E-05</v>
@@ -32684,7 +32636,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K864">
         <v>4.813737323943547E-05</v>
@@ -32710,7 +32662,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K865">
         <v>4.813737323943547E-05</v>
@@ -32736,7 +32688,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K866">
         <v>4.813737323943547E-05</v>
@@ -32762,7 +32714,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K867">
         <v>4.371688040410835E-05</v>
@@ -32788,7 +32740,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K868">
         <v>2.262432531908394E-05</v>
@@ -32814,7 +32766,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K869">
         <v>1.599781385289484E-05</v>
@@ -32840,7 +32792,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K870">
         <v>1.599781385289484E-05</v>
@@ -32866,7 +32818,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K871">
         <v>1.599781385289484E-05</v>
@@ -32892,7 +32844,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K872">
         <v>1.599781385289484E-05</v>
@@ -32918,7 +32870,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K873">
         <v>1.599781385289484E-05</v>
@@ -32944,7 +32896,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K874">
         <v>1.599781385289484E-05</v>
@@ -32970,7 +32922,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K875">
         <v>1.599781385289484E-05</v>
@@ -32996,7 +32948,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K876">
         <v>1.599781385289484E-05</v>
@@ -33022,7 +32974,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K877">
         <v>1.599781385289484E-05</v>
@@ -33048,7 +33000,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K878">
         <v>1.599781385289484E-05</v>
@@ -33074,7 +33026,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K879">
         <v>1.383176491254431E-05</v>
@@ -33100,7 +33052,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K880">
         <v>1.131216265954185E-05</v>
@@ -33126,7 +33078,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K881">
         <v>1.131216265954185E-05</v>
@@ -33152,7 +33104,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K882">
         <v>6.770462504450487E-06</v>
@@ -33178,7 +33130,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K883">
         <v>3.945581489125182E-06</v>
@@ -33204,7 +33156,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K884">
         <v>0</v>
@@ -33230,7 +33182,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K885">
         <v>0</v>
@@ -33256,7 +33208,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K886">
         <v>0</v>
@@ -33282,7 +33234,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K887">
         <v>0</v>
@@ -33308,7 +33260,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K888">
         <v>0</v>
@@ -33334,7 +33286,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K889">
         <v>0</v>
@@ -33360,7 +33312,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K890">
         <v>0</v>
@@ -33386,7 +33338,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K891">
         <v>0</v>
@@ -33412,7 +33364,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K892">
         <v>0</v>
@@ -33438,7 +33390,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K893">
         <v>0</v>
@@ -33464,7 +33416,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K894">
         <v>0</v>
@@ -33490,7 +33442,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K895">
         <v>0</v>
@@ -33516,7 +33468,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K896">
         <v>0</v>
@@ -33542,7 +33494,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K897">
         <v>0</v>
@@ -33568,7 +33520,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K898">
         <v>0</v>
@@ -33594,7 +33546,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K899">
         <v>0</v>
